--- a/2019宋佳伟加班.xlsx
+++ b/2019宋佳伟加班.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9140" yWindow="4960" windowWidth="23680" windowHeight="12540"/>
+    <workbookView xWindow="2900" yWindow="4300" windowWidth="23680" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
   <si>
     <t>序号</t>
   </si>
@@ -60,13 +60,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>3小时</t>
-    <rPh sb="1" eb="2">
-      <t>xiao shi</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>付款时间</t>
     <rPh sb="0" eb="1">
       <t>fu kuan</t>
@@ -94,25 +87,120 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9:00-12:00</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>发票问题，了解、咨询、更改</t>
-    <rPh sb="0" eb="1">
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8小时</t>
+    <rPh sb="1" eb="2">
+      <t>xiao shi</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、发票问题，了解、咨询、更改
+2、提出两个问题，查找解决方案</t>
+    <rPh sb="2" eb="3">
       <t>fa piao</t>
     </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>liao jie</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>zi xun</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>geng gai</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ti chu</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>liang ge</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>fang an</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查找问题最优解决方案
+2、解决第二个问题</t>
     <rPh sb="2" eb="3">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
       <t>wen ti</t>
     </rPh>
-    <rPh sb="5" eb="6">
-      <t>liao jie</t>
+    <rPh sb="6" eb="7">
+      <t>zui you</t>
     </rPh>
     <rPh sb="8" eb="9">
-      <t>zi xun</t>
-    </rPh>
-    <rPh sb="11" eb="12">
-      <t>geng gai</t>
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fang an</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>di er g</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9:00-18:00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、查找问题最优解决方案
+2、解决第一个问题</t>
+    <rPh sb="2" eb="3">
+      <t>cha zhao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>wen ti</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zui you</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>fang an</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>di er g</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>yi</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>wen ti</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -159,7 +247,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -186,6 +274,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J3"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -530,15 +624,15 @@
       </c>
       <c r="H1" s="3"/>
       <c r="I1" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="8" t="s">
         <v>9</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="5"/>
       <c r="C2" s="7"/>
@@ -548,7 +642,7 @@
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:10" ht="28" x14ac:dyDescent="0.15">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -556,19 +650,56 @@
         <v>43472</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>13</v>
+      <c r="E3" s="9" t="s">
+        <v>14</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43473</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="28" x14ac:dyDescent="0.15">
+      <c r="B5" s="7">
+        <v>43474</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/2019宋佳伟加班.xlsx
+++ b/2019宋佳伟加班.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>序号</t>
   </si>
@@ -201,6 +201,19 @@
     </rPh>
     <rPh sb="20" eb="21">
       <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共计24小时 费用2400元</t>
+    <rPh sb="4" eb="5">
+      <t>xiao shi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>fei yong</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>yuan</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -582,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -699,6 +712,11 @@
       </c>
       <c r="F5" s="3" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="E6" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
